--- a/data/trans_orig/Q15_1-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/Q15_1-Dificultad-trans_orig.xlsx
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.03651543484219239</v>
+        <v>0.03734721185135789</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.06741530302390961</v>
+        <v>0.06939120045894391</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.05683110399410192</v>
+        <v>0.05721064615077265</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.0731223794362829</v>
+        <v>0.07508278184760556</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.04183566162075691</v>
+        <v>0.04103740979477019</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.07184037120305063</v>
+        <v>0.07241560023441869</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.05289072612118932</v>
+        <v>0.05416134823621029</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.0819929364770966</v>
+        <v>0.08234276183758286</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.04492665878575522</v>
+        <v>0.04373356109568193</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.07487446949873697</v>
+        <v>0.0747264004423336</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.05909384009850326</v>
+        <v>0.05997438946630793</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.08681805323522472</v>
+        <v>0.08733356145846367</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.07954106799869198</v>
+        <v>0.08006034162760349</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1129900993856567</v>
+        <v>0.1135441781010953</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.09430517496508505</v>
+        <v>0.09335102918881998</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1586161374095865</v>
+        <v>0.1614552012845346</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1022745628325194</v>
+        <v>0.09910195166863218</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1256325971663075</v>
+        <v>0.1272086105280946</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.09646550354309621</v>
+        <v>0.09660684766179889</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.143384773857138</v>
+        <v>0.1434161152046201</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.0863635069334111</v>
+        <v>0.08238492938317891</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1106047686814996</v>
+        <v>0.1112189723251718</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.0873275192900725</v>
+        <v>0.09011260179857465</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.139417824781415</v>
+        <v>0.1419329162475653</v>
       </c>
     </row>
     <row r="7">
@@ -829,7 +829,7 @@
         <v>0.06194698196524628</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.0786297420162769</v>
+        <v>0.07862974201627689</v>
       </c>
     </row>
     <row r="8">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.06172872750704414</v>
+        <v>0.05985164389831899</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.08536164461722924</v>
+        <v>0.08423664243973898</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.04438804188692272</v>
+        <v>0.04549104233842936</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.04672249034845218</v>
+        <v>0.04810622658003872</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.04427020574258098</v>
+        <v>0.04382770842631375</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.07040069594950892</v>
+        <v>0.07038841946868526</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.04463513679244557</v>
+        <v>0.04358890119288698</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.0725326127834386</v>
+        <v>0.0738196772590953</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.05678861719694758</v>
+        <v>0.05685227590330723</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.08118670247218279</v>
+        <v>0.08223617933795667</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.04928006060529441</v>
+        <v>0.05012598128032889</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.06570541287587538</v>
+        <v>0.06591635650454883</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.09654356904379648</v>
+        <v>0.09541887358331294</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1324597800053257</v>
+        <v>0.1297301858496072</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.08614185616640345</v>
+        <v>0.08518149500534526</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.09712159787027544</v>
+        <v>0.09997898558146281</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.07721973662501898</v>
+        <v>0.07687965850663192</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1127846132671069</v>
+        <v>0.1109866476499342</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.08457474190491278</v>
+        <v>0.08485413934453399</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1140797576802784</v>
+        <v>0.1147126754581468</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.07936389271960224</v>
+        <v>0.08028836267816633</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1128862410646616</v>
+        <v>0.1131943377974702</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.07899332376608133</v>
+        <v>0.07667030187005261</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.09724355673401111</v>
+        <v>0.09556145543869024</v>
       </c>
     </row>
     <row r="10">
@@ -953,7 +953,7 @@
         <v>0.07168074478007518</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.08200123643566734</v>
+        <v>0.08200123643566735</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.07387596512746779</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.07476828369208094</v>
+        <v>0.07528698640426906</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.0716789660714784</v>
+        <v>0.07438242462326282</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.04641499429971534</v>
+        <v>0.04540218397162819</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.05891039912123534</v>
+        <v>0.05708055066654992</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.03843109702634382</v>
+        <v>0.03728842271472188</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.06810088186743524</v>
+        <v>0.06924903687700679</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.05196930864745699</v>
+        <v>0.05249238342006427</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.06393510428680593</v>
+        <v>0.05973102186794881</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.06069722713334214</v>
+        <v>0.06240337393083405</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.0765143763013971</v>
+        <v>0.07556291019907117</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.05340739682019861</v>
+        <v>0.05325706714604342</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.06528687464022757</v>
+        <v>0.06508253239881399</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1230137080338467</v>
+        <v>0.1205352756946535</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.145946106222001</v>
+        <v>0.1498326069962635</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.08360258897479364</v>
+        <v>0.08039859584299303</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.09789992501099126</v>
+        <v>0.097408201657267</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.06691197334652925</v>
+        <v>0.06692323463178776</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.137377899327587</v>
+        <v>0.1399632349331221</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.09935828738019556</v>
+        <v>0.0962863830110844</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1162752562235428</v>
+        <v>0.1100917476661635</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.08777566256853249</v>
+        <v>0.09007507405138393</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1265200086362846</v>
+        <v>0.1242969989235588</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.08191272298609219</v>
+        <v>0.08222859324682248</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.09741098621378791</v>
+        <v>0.09620878920122941</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>0.05361912768560224</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.08568369196829047</v>
+        <v>0.08568369196829048</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.07313167832370948</v>
@@ -1089,7 +1089,7 @@
         <v>0.05410555373589197</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.06646873130261612</v>
+        <v>0.0664687313026161</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.08889660102235061</v>
@@ -1101,7 +1101,7 @@
         <v>0.0538581903268997</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.07641923896957864</v>
+        <v>0.07641923896957861</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.07184066796119694</v>
+        <v>0.0747796210823003</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.06288102834897007</v>
+        <v>0.06656976511908286</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03509421381524364</v>
+        <v>0.03681552687332486</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.05231921457653792</v>
+        <v>0.05009600640982002</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.04826548743668661</v>
+        <v>0.0478027835667522</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.04371652863761841</v>
+        <v>0.04162775711525274</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.03459410628942776</v>
+        <v>0.03296277618949821</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.05020753288137017</v>
+        <v>0.05077897199809082</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.07096506779450612</v>
+        <v>0.06831120436386268</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.06130712269840537</v>
+        <v>0.06084010783240848</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.03952554461314525</v>
+        <v>0.03957350408094622</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.05705475292810101</v>
+        <v>0.05761898657630515</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.138247615972955</v>
+        <v>0.1357039119108695</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1241726555235701</v>
+        <v>0.1271947522490649</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.07843386453268833</v>
+        <v>0.07690400374880091</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.167587941100367</v>
+        <v>0.1655285086963561</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1141884924843126</v>
+        <v>0.1089328584861711</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1061894422524336</v>
+        <v>0.1068699966528854</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.09694731258368208</v>
+        <v>0.09663149791710139</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.08905694194042496</v>
+        <v>0.09059801601142281</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1130451585568588</v>
+        <v>0.1124448424072202</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.105881179568295</v>
+        <v>0.1044106138382424</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.0776441457206218</v>
+        <v>0.07328884033465533</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1180030497756453</v>
+        <v>0.1162505665368792</v>
       </c>
     </row>
     <row r="16">
@@ -1213,7 +1213,7 @@
         <v>0.06483866666357904</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.08005210813333537</v>
+        <v>0.08005210813333534</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.05799473615272241</v>
@@ -1237,7 +1237,7 @@
         <v>0.0656074035867701</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.082652334409319</v>
+        <v>0.08265233440931903</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.07155346441479334</v>
+        <v>0.07207938386289899</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.08394938178047945</v>
+        <v>0.08446177809734771</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.05542074346800776</v>
+        <v>0.05518237384710584</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.06607344063033423</v>
+        <v>0.06619118832806019</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.04858273826412728</v>
+        <v>0.04901737033434498</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.07684068209889505</v>
+        <v>0.07684262697647805</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.05576139590709935</v>
+        <v>0.056571992481175</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.07445906537199364</v>
+        <v>0.07431331960187988</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.06225261307897611</v>
+        <v>0.06324617755461098</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.08331932411303491</v>
+        <v>0.08363526401688197</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.05816001179754831</v>
+        <v>0.05861448233306481</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.07349302521438675</v>
+        <v>0.07395376536697497</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.0936249713673121</v>
+        <v>0.09360799507304478</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1128786120743121</v>
+        <v>0.1129126639754934</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.07548349347304743</v>
+        <v>0.07564072811168079</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1043212013068285</v>
+        <v>0.1027257754062148</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.06961920496785708</v>
+        <v>0.0703106544351144</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1046380817364091</v>
+        <v>0.1040957272678682</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.07873681350148763</v>
+        <v>0.08007315331436411</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.0985150092495367</v>
+        <v>0.09762598276238565</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.07814539186374585</v>
+        <v>0.07872506211882951</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1043969602848584</v>
+        <v>0.1034633783989141</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.07347125462640865</v>
+        <v>0.07426692082709666</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.09573723008517201</v>
+        <v>0.09442639443934722</v>
       </c>
     </row>
     <row r="19">
